--- a/wwwroot/RegulatorExcel/InputTemplate/EJLogMonitor.xlsx
+++ b/wwwroot/RegulatorExcel/InputTemplate/EJLogMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Man\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C312163-2F16-4E1D-8C8D-26F1811EA7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{578558FD-F0AC-45E8-8149-FD8883E97C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF59E440-A5DD-49F6-9DD4-ED0BC3FC3FAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Terminal No</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Total Transaction (EJ Log)</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
   <si>
     <t>Status</t>
@@ -116,15 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44F740A-2D87-4B9D-889B-A95DD9BA34C5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -462,59 +462,58 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1"/>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:9" s="1" customFormat="1"/>
+    <row r="2" spans="2:9" s="1" customFormat="1">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+    <row r="3" spans="2:9" ht="15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+    <row r="4" spans="2:9" ht="15">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="2:9" ht="15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="15">
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
